--- a/Backlog/Backlog.xlsx
+++ b/Backlog/Backlog.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23007"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ewert\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BD57FC-C4B1-4F09-9E88-4B3DB8C06D3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{663694C2-7112-4B94-81D1-259D179DF9D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F73CC350-0EFC-4C54-A9FE-2EA4322314A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,163 +33,202 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="63">
   <si>
     <t>Backlog</t>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
     <t>Requisito</t>
   </si>
   <si>
     <t>Classificação</t>
   </si>
   <si>
+    <t>Pontuação</t>
+  </si>
+  <si>
     <t>Ordem de execução</t>
   </si>
   <si>
     <t>Sprint</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>RF1</t>
   </si>
   <si>
+    <t>HLD</t>
+  </si>
+  <si>
+    <t>Essencial</t>
+  </si>
+  <si>
+    <t>sprint 2</t>
+  </si>
+  <si>
     <t>RF2</t>
   </si>
   <si>
+    <t>LLD</t>
+  </si>
+  <si>
     <t>RF3</t>
   </si>
   <si>
+    <t>Banco de dados</t>
+  </si>
+  <si>
+    <t>sprint 1</t>
+  </si>
+  <si>
     <t>RF4</t>
   </si>
   <si>
+    <t>Contextualização</t>
+  </si>
+  <si>
     <t>RF5</t>
   </si>
   <si>
+    <t>PPT apresentação</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
     <t>RF6</t>
   </si>
   <si>
+    <t>Simulador Financeiro</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
     <t>RF7</t>
   </si>
   <si>
+    <t>Cadastro/Login do site</t>
+  </si>
+  <si>
     <t>RF8</t>
   </si>
   <si>
+    <t>Site institucional</t>
+  </si>
+  <si>
     <t>RF9</t>
   </si>
   <si>
-    <t>HLD</t>
-  </si>
-  <si>
-    <t>Essencial</t>
-  </si>
-  <si>
-    <t>sprint 2</t>
-  </si>
-  <si>
-    <t>LLD</t>
-  </si>
-  <si>
-    <t>Banco de dados</t>
-  </si>
-  <si>
-    <t>sprint 1</t>
-  </si>
-  <si>
-    <t>Contextualização</t>
-  </si>
-  <si>
-    <t>PPT apresentação</t>
-  </si>
-  <si>
-    <t>Sprint 2</t>
-  </si>
-  <si>
-    <t>Simulador Financeiro</t>
-  </si>
-  <si>
-    <t>Sprint 1</t>
-  </si>
-  <si>
-    <t>Cadastro/Login do site</t>
-  </si>
-  <si>
-    <t>Site institucional</t>
+    <t>Barra de menu</t>
+  </si>
+  <si>
+    <t>Importante</t>
   </si>
   <si>
     <t>RF10</t>
   </si>
   <si>
+    <t>Rodapé</t>
+  </si>
+  <si>
+    <t>Desejável</t>
+  </si>
+  <si>
     <t>RF11</t>
   </si>
   <si>
+    <t>Suporte/Feedback do cliente</t>
+  </si>
+  <si>
     <t>RF12</t>
   </si>
   <si>
+    <t>Gráficos no Site</t>
+  </si>
+  <si>
     <t>RF13</t>
   </si>
   <si>
-    <t>Barra de menu</t>
-  </si>
-  <si>
-    <t>Importante</t>
-  </si>
-  <si>
-    <t>Rodapé</t>
-  </si>
-  <si>
-    <t>Desejável</t>
-  </si>
-  <si>
-    <t>Suporte/Feedback do cliente</t>
-  </si>
-  <si>
     <t>aba de perfil para o cliente</t>
   </si>
   <si>
     <t>RF14</t>
   </si>
   <si>
+    <t>Os dados do site deve se basear no BD</t>
+  </si>
+  <si>
     <t>RF15</t>
   </si>
   <si>
+    <t>O sensor deve captar a luz solar</t>
+  </si>
+  <si>
     <t>RF16</t>
   </si>
   <si>
+    <t>O sistema deve redirecionar o painel</t>
+  </si>
+  <si>
     <t>RF17</t>
   </si>
   <si>
+    <t>Painel deve ter estrutura para movimentação</t>
+  </si>
+  <si>
     <t>RF18</t>
   </si>
   <si>
-    <t>Painel deve ter estrutura para movimentação</t>
-  </si>
-  <si>
-    <t>O sistema deve redirecionar o painel</t>
-  </si>
-  <si>
-    <t>O sensor deve captar a luz solar</t>
-  </si>
-  <si>
     <t>O sistema deve mandar os dados para o BD</t>
   </si>
   <si>
-    <t>Os dados do site deve se basear no BD</t>
-  </si>
-  <si>
-    <t>Pontuação</t>
-  </si>
-  <si>
-    <t>Gráficos no Site</t>
+    <t>RF19</t>
+  </si>
+  <si>
+    <t>Manual de instalação</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>RF20</t>
+  </si>
+  <si>
+    <t>Ferramenta de Helpdesk</t>
+  </si>
+  <si>
+    <t>RF21</t>
+  </si>
+  <si>
+    <t>Hospedar o site</t>
+  </si>
+  <si>
+    <t>RF22</t>
+  </si>
+  <si>
+    <t>Planilha de homologação do projeto</t>
+  </si>
+  <si>
+    <t>RF23</t>
+  </si>
+  <si>
+    <t>Modelagem lógica e conceitual no projeto</t>
+  </si>
+  <si>
+    <t>RF24</t>
+  </si>
+  <si>
+    <t>Fluxograma do Processo de Atendimento e Suporte ao Cliente</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,7 +306,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -563,21 +602,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E827912C-9BBF-4A2D-B812-92F8D7988454}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -587,35 +626,35 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1">
         <v>10</v>
@@ -624,18 +663,18 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1">
         <v>10</v>
@@ -644,18 +683,18 @@
         <v>2</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1">
         <v>7</v>
@@ -664,18 +703,18 @@
         <v>5</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -684,18 +723,18 @@
         <v>3</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1">
         <v>10</v>
@@ -704,18 +743,18 @@
         <v>18</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D8" s="1">
         <v>8</v>
@@ -724,18 +763,18 @@
         <v>6</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1">
         <v>10</v>
@@ -744,18 +783,18 @@
         <v>17</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D10" s="1">
         <v>10</v>
@@ -764,18 +803,18 @@
         <v>4</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1">
         <v>10</v>
@@ -784,18 +823,18 @@
         <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="1">
         <v>10</v>
@@ -804,18 +843,18 @@
         <v>15</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13" s="1">
         <v>10</v>
@@ -824,18 +863,18 @@
         <v>12</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D14" s="1">
         <v>8</v>
@@ -844,18 +883,18 @@
         <v>11</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D15" s="1">
         <v>8</v>
@@ -864,18 +903,18 @@
         <v>13</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D16" s="1">
         <v>6</v>
@@ -884,18 +923,18 @@
         <v>14</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D17" s="1">
         <v>6</v>
@@ -904,18 +943,18 @@
         <v>7</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D18" s="1">
         <v>10</v>
@@ -924,18 +963,18 @@
         <v>9</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D19" s="1">
         <v>10</v>
@@ -944,18 +983,18 @@
         <v>8</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D20" s="1">
         <v>6</v>
@@ -964,7 +1003,127 @@
         <v>10</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="1">
+        <v>8</v>
+      </c>
+      <c r="E21" s="1">
+        <v>18</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="1">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1">
+        <v>19</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="1">
+        <v>10</v>
+      </c>
+      <c r="E23" s="1">
+        <v>20</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="1">
+        <v>10</v>
+      </c>
+      <c r="E24" s="1">
+        <v>21</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="1">
+        <v>7</v>
+      </c>
+      <c r="E25" s="1">
+        <v>22</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="1">
+        <v>9</v>
+      </c>
+      <c r="E26" s="1">
         <v>23</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog/Backlog.xlsx
+++ b/Backlog/Backlog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23007"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ewert\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\Faculdade\Repositório\Projeto-Volt-Solar\Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{663694C2-7112-4B94-81D1-259D179DF9D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21E7619-9CB3-44B8-B591-BA5F13125C96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F73CC350-0EFC-4C54-A9FE-2EA4322314A7}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="62">
   <si>
     <t>Backlog</t>
   </si>
@@ -152,9 +152,6 @@
     <t>RF13</t>
   </si>
   <si>
-    <t>aba de perfil para o cliente</t>
-  </si>
-  <si>
     <t>RF14</t>
   </si>
   <si>
@@ -164,9 +161,6 @@
     <t>RF15</t>
   </si>
   <si>
-    <t>O sensor deve captar a luz solar</t>
-  </si>
-  <si>
     <t>RF16</t>
   </si>
   <si>
@@ -182,9 +176,6 @@
     <t>RF18</t>
   </si>
   <si>
-    <t>O sistema deve mandar os dados para o BD</t>
-  </si>
-  <si>
     <t>RF19</t>
   </si>
   <si>
@@ -222,13 +213,19 @@
   </si>
   <si>
     <t>Fluxograma do Processo de Atendimento e Suporte ao Cliente</t>
+  </si>
+  <si>
+    <t>Aba de perfil para o cliente</t>
+  </si>
+  <si>
+    <t>Sistema manda os dados para o Banco de dados em nuvem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,7 +303,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -604,11 +601,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E827912C-9BBF-4A2D-B812-92F8D7988454}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="57.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
@@ -616,7 +613,7 @@
     <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -626,7 +623,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -646,7 +643,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -666,7 +663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -686,7 +683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -706,7 +703,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -726,7 +723,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -746,7 +743,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -766,7 +763,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -786,7 +783,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -806,7 +803,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -826,7 +823,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
@@ -837,7 +834,7 @@
         <v>33</v>
       </c>
       <c r="D12" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E12" s="1">
         <v>15</v>
@@ -846,7 +843,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
@@ -854,7 +851,7 @@
         <v>35</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D13" s="1">
         <v>10</v>
@@ -863,10 +860,10 @@
         <v>12</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
@@ -886,12 +883,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>9</v>
@@ -906,12 +903,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>9</v>
@@ -926,32 +923,32 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="1">
+        <v>9</v>
+      </c>
+      <c r="E17" s="1">
+        <v>15</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="1">
-        <v>6</v>
-      </c>
-      <c r="E17" s="1">
-        <v>7</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>9</v>
@@ -966,12 +963,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>9</v>
@@ -986,12 +983,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>9</v>
@@ -1006,12 +1003,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>9</v>
@@ -1023,15 +1020,15 @@
         <v>18</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>9</v>
@@ -1043,18 +1040,18 @@
         <v>19</v>
       </c>
       <c r="F22" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="B23" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D23" s="1">
         <v>10</v>
@@ -1063,15 +1060,15 @@
         <v>20</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>9</v>
@@ -1083,15 +1080,15 @@
         <v>21</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>9</v>
@@ -1103,15 +1100,15 @@
         <v>22</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>9</v>
@@ -1123,7 +1120,7 @@
         <v>23</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
